--- a/Aplicación/AuditoriaUsuarios.xlsx
+++ b/Aplicación/AuditoriaUsuarios.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="121">
   <si>
     <t>Id Usuario</t>
   </si>
@@ -41,28 +41,340 @@
     <t>Accion</t>
   </si>
   <si>
-    <t>sadf</t>
-  </si>
-  <si>
-    <t>sfa</t>
+    <t>ada</t>
+  </si>
+  <si>
+    <t>asdas</t>
+  </si>
+  <si>
+    <t>asda12</t>
+  </si>
+  <si>
+    <t>1312</t>
+  </si>
+  <si>
+    <t>77963b7a931377ad4ab5ad6a9cd718aa</t>
+  </si>
+  <si>
+    <t>2019-06-20 21:23:42.0</t>
+  </si>
+  <si>
+    <t>192.168.1.22</t>
+  </si>
+  <si>
+    <t>Eliminacion</t>
+  </si>
+  <si>
+    <t>2019-06-19 21:24:29.0</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
+  </si>
+  <si>
+    <t>Cesar</t>
+  </si>
+  <si>
+    <t>Schefer</t>
+  </si>
+  <si>
+    <t>cesar</t>
+  </si>
+  <si>
+    <t>32252916</t>
+  </si>
+  <si>
+    <t>4d186321c1a7f0f354b297e8914ab240</t>
+  </si>
+  <si>
+    <t>2019-06-19 21:23:54.0</t>
+  </si>
+  <si>
+    <t>Modificacion</t>
+  </si>
+  <si>
+    <t>cesarschefer</t>
+  </si>
+  <si>
+    <t>2019-06-19 21:02:11.0</t>
+  </si>
+  <si>
+    <t>dasda</t>
+  </si>
+  <si>
+    <t>adas</t>
+  </si>
+  <si>
+    <t>12312</t>
+  </si>
+  <si>
+    <t>2019-06-08 09:58:04.0</t>
+  </si>
+  <si>
+    <t>192.168.1.21</t>
+  </si>
+  <si>
+    <t>2019-06-08 09:57:52.0</t>
+  </si>
+  <si>
+    <t>Jorgese</t>
+  </si>
+  <si>
+    <t>Perez</t>
+  </si>
+  <si>
+    <t>jorgeperez</t>
+  </si>
+  <si>
+    <t>1111111</t>
+  </si>
+  <si>
+    <t>2019-06-08 09:57:34.0</t>
+  </si>
+  <si>
+    <t>Jorges</t>
+  </si>
+  <si>
+    <t>2019-06-08 09:57:26.0</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>2019-06-08 09:57:20.0</t>
+  </si>
+  <si>
+    <t>hola</t>
+  </si>
+  <si>
+    <t>2019-06-08 09:57:11.0</t>
+  </si>
+  <si>
+    <t>2019-06-08 09:51:23.0</t>
+  </si>
+  <si>
+    <t>2019-06-08 09:50:00.0</t>
+  </si>
+  <si>
+    <t>9405788adf859bd29fab2dd0f926d3aa</t>
+  </si>
+  <si>
+    <t>2019-06-08 09:49:46.0</t>
+  </si>
+  <si>
+    <t>2019-06-08 09:49:38.0</t>
+  </si>
+  <si>
+    <t>2019-06-08 09:36:09.0</t>
+  </si>
+  <si>
+    <t>Jorgeses</t>
+  </si>
+  <si>
+    <t>0c0bc37267a758a7755b1b4fc634ba53</t>
+  </si>
+  <si>
+    <t>2019-06-08 09:36:00.0</t>
+  </si>
+  <si>
+    <t>fa7b4ef4331c8cf29915b31ec2d25d68</t>
+  </si>
+  <si>
+    <t>2019-06-08 09:29:03.0</t>
+  </si>
+  <si>
+    <t>cf96bce69f409820e4b6bce661eb4e78</t>
+  </si>
+  <si>
+    <t>2019-06-08 09:28:03.0</t>
+  </si>
+  <si>
+    <t>Emiliano</t>
+  </si>
+  <si>
+    <t>Quiroga</t>
   </si>
   <si>
     <t>emi</t>
   </si>
   <si>
-    <t>3252353</t>
-  </si>
-  <si>
-    <t>827ccb0eea8a706c4c34a16891f84e7b</t>
-  </si>
-  <si>
-    <t>2019-06-25 18:31:59.0</t>
-  </si>
-  <si>
-    <t>192.168.21.216</t>
-  </si>
-  <si>
-    <t>Nuevo</t>
+    <t>123455</t>
+  </si>
+  <si>
+    <t>149f00036617f2c10c9457af10540bf1</t>
+  </si>
+  <si>
+    <t>2019-06-02 22:33:23.0</t>
+  </si>
+  <si>
+    <t>192.168.1.20</t>
+  </si>
+  <si>
+    <t>2019-06-02 22:31:54.0</t>
+  </si>
+  <si>
+    <t>2019-06-02 22:31:43.0</t>
+  </si>
+  <si>
+    <t>padasdas</t>
+  </si>
+  <si>
+    <t>adasdasd</t>
+  </si>
+  <si>
+    <t>adsa</t>
+  </si>
+  <si>
+    <t>12344</t>
+  </si>
+  <si>
+    <t>2019-06-02 21:59:32.0</t>
+  </si>
+  <si>
+    <t>2019-06-02 21:56:02.0</t>
+  </si>
+  <si>
+    <t>dsad</t>
+  </si>
+  <si>
+    <t>pepe</t>
+  </si>
+  <si>
+    <t>2019-06-02 21:35:30.0</t>
+  </si>
+  <si>
+    <t>2019-06-02 21:31:42.0</t>
+  </si>
+  <si>
+    <t>2019-06-02 21:31:06.0</t>
+  </si>
+  <si>
+    <t>2019-06-02 21:29:42.0</t>
+  </si>
+  <si>
+    <t>2019-06-02 21:24:38.0</t>
+  </si>
+  <si>
+    <t>2019-06-02 21:24:12.0</t>
+  </si>
+  <si>
+    <t>jose</t>
+  </si>
+  <si>
+    <t>dasd</t>
+  </si>
+  <si>
+    <t>21312</t>
+  </si>
+  <si>
+    <t>2019-06-02 21:23:38.0</t>
+  </si>
+  <si>
+    <t>2019-06-01 19:20:22.0</t>
+  </si>
+  <si>
+    <t>2019-06-01 18:18:49.0</t>
+  </si>
+  <si>
+    <t>c8b2f17833a4c73bb20f88876219ddcd</t>
+  </si>
+  <si>
+    <t>2019-06-01 18:17:02.0</t>
+  </si>
+  <si>
+    <t>adasd</t>
+  </si>
+  <si>
+    <t>c20ad4d76fe97759aa27a0c99bff6710</t>
+  </si>
+  <si>
+    <t>2019-06-01 18:05:18.0</t>
+  </si>
+  <si>
+    <t>2019-06-01 17:19:08.0</t>
+  </si>
+  <si>
+    <t>2019-06-01 17:05:08.0</t>
+  </si>
+  <si>
+    <t>2019-06-01 17:02:02.0</t>
+  </si>
+  <si>
+    <t>2019-06-01 16:59:32.0</t>
+  </si>
+  <si>
+    <t>2019-06-01 16:51:30.0</t>
+  </si>
+  <si>
+    <t>12321</t>
+  </si>
+  <si>
+    <t>2019-06-01 15:26:37.0</t>
+  </si>
+  <si>
+    <t>2019-06-01 15:26:04.0</t>
+  </si>
+  <si>
+    <t>Nuevos</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>2019-06-01 15:25:57.0</t>
+  </si>
+  <si>
+    <t>2019-06-01 15:25:48.0</t>
+  </si>
+  <si>
+    <t>auditor</t>
+  </si>
+  <si>
+    <t>apellidoauditor</t>
+  </si>
+  <si>
+    <t>2323</t>
+  </si>
+  <si>
+    <t>2019-06-01 15:25:44.0</t>
+  </si>
+  <si>
+    <t>2019-06-01 15:25:36.0</t>
+  </si>
+  <si>
+    <t>2019-06-01 15:25:03.0</t>
+  </si>
+  <si>
+    <t>2019-06-01 15:19:43.0</t>
+  </si>
+  <si>
+    <t>2019-06-01 15:11:46.0</t>
+  </si>
+  <si>
+    <t>2019-06-01 14:44:48.0</t>
+  </si>
+  <si>
+    <t>2019-06-01 14:44:29.0</t>
+  </si>
+  <si>
+    <t>2019-06-01 14:44:14.0</t>
+  </si>
+  <si>
+    <t>2019-06-01 14:38:17.0</t>
+  </si>
+  <si>
+    <t>2019-06-01 13:22:40.0</t>
+  </si>
+  <si>
+    <t>2019-06-01 13:07:02.0</t>
+  </si>
+  <si>
+    <t>2019-06-01 13:06:51.0</t>
+  </si>
+  <si>
+    <t>2019-06-01 13:06:46.0</t>
+  </si>
+  <si>
+    <t>2019-06-01 12:38:49.0</t>
   </si>
 </sst>
 </file>
@@ -107,22 +419,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="10.15625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="8.390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.390625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="4.890625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="8.83984375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="35.37109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.38671875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.703125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="12.31640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="9.95703125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="36.30859375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="6.28125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="21.33984375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.96875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="6.859375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.73828125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="12.6484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -156,7 +468,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.0</v>
+        <v>23.0</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -174,7 +486,7 @@
         <v>13</v>
       </c>
       <c r="G2" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
@@ -184,6 +496,1798 @@
       </c>
       <c r="J2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" t="s">
+        <v>64</v>
+      </c>
+      <c r="J21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" t="s">
+        <v>64</v>
+      </c>
+      <c r="J23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26" t="s">
+        <v>64</v>
+      </c>
+      <c r="J26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" t="s">
+        <v>64</v>
+      </c>
+      <c r="J27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" t="s">
+        <v>64</v>
+      </c>
+      <c r="J28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" t="s">
+        <v>64</v>
+      </c>
+      <c r="J30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>84</v>
+      </c>
+      <c r="I31" t="s">
+        <v>64</v>
+      </c>
+      <c r="J31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>85</v>
+      </c>
+      <c r="I32" t="s">
+        <v>64</v>
+      </c>
+      <c r="J32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33" t="s">
+        <v>64</v>
+      </c>
+      <c r="J33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>88</v>
+      </c>
+      <c r="I34" t="s">
+        <v>64</v>
+      </c>
+      <c r="J34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>91</v>
+      </c>
+      <c r="I35" t="s">
+        <v>64</v>
+      </c>
+      <c r="J35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>92</v>
+      </c>
+      <c r="I36" t="s">
+        <v>64</v>
+      </c>
+      <c r="J36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>93</v>
+      </c>
+      <c r="I37" t="s">
+        <v>64</v>
+      </c>
+      <c r="J37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>94</v>
+      </c>
+      <c r="I38" t="s">
+        <v>64</v>
+      </c>
+      <c r="J38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>95</v>
+      </c>
+      <c r="I39" t="s">
+        <v>64</v>
+      </c>
+      <c r="J39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>96</v>
+      </c>
+      <c r="I40" t="s">
+        <v>64</v>
+      </c>
+      <c r="J40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" t="s">
+        <v>62</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>98</v>
+      </c>
+      <c r="I41" t="s">
+        <v>64</v>
+      </c>
+      <c r="J41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>99</v>
+      </c>
+      <c r="I42" t="s">
+        <v>64</v>
+      </c>
+      <c r="J42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" t="s">
+        <v>101</v>
+      </c>
+      <c r="F43" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>102</v>
+      </c>
+      <c r="I43" t="s">
+        <v>64</v>
+      </c>
+      <c r="J43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44" t="s">
+        <v>83</v>
+      </c>
+      <c r="F44" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>103</v>
+      </c>
+      <c r="I44" t="s">
+        <v>64</v>
+      </c>
+      <c r="J44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>107</v>
+      </c>
+      <c r="I45" t="s">
+        <v>64</v>
+      </c>
+      <c r="J45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>108</v>
+      </c>
+      <c r="I46" t="s">
+        <v>64</v>
+      </c>
+      <c r="J46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>109</v>
+      </c>
+      <c r="I47" t="s">
+        <v>64</v>
+      </c>
+      <c r="J47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" t="s">
+        <v>43</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>110</v>
+      </c>
+      <c r="I48" t="s">
+        <v>64</v>
+      </c>
+      <c r="J48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" t="s">
+        <v>97</v>
+      </c>
+      <c r="F49" t="s">
+        <v>62</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>111</v>
+      </c>
+      <c r="I49" t="s">
+        <v>64</v>
+      </c>
+      <c r="J49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>112</v>
+      </c>
+      <c r="I50" t="s">
+        <v>64</v>
+      </c>
+      <c r="J50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" t="s">
+        <v>83</v>
+      </c>
+      <c r="F51" t="s">
+        <v>43</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>113</v>
+      </c>
+      <c r="I51" t="s">
+        <v>64</v>
+      </c>
+      <c r="J51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52" t="s">
+        <v>82</v>
+      </c>
+      <c r="E52" t="s">
+        <v>83</v>
+      </c>
+      <c r="F52" t="s">
+        <v>43</v>
+      </c>
+      <c r="G52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>114</v>
+      </c>
+      <c r="I52" t="s">
+        <v>64</v>
+      </c>
+      <c r="J52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53" t="s">
+        <v>83</v>
+      </c>
+      <c r="F53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>115</v>
+      </c>
+      <c r="I53" t="s">
+        <v>64</v>
+      </c>
+      <c r="J53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" t="s">
+        <v>60</v>
+      </c>
+      <c r="E54" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54" t="s">
+        <v>43</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H54" t="s">
+        <v>116</v>
+      </c>
+      <c r="I54" t="s">
+        <v>64</v>
+      </c>
+      <c r="J54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" t="s">
+        <v>37</v>
+      </c>
+      <c r="F55" t="s">
+        <v>43</v>
+      </c>
+      <c r="G55" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>117</v>
+      </c>
+      <c r="I55" t="s">
+        <v>64</v>
+      </c>
+      <c r="J55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F56" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>118</v>
+      </c>
+      <c r="I56" t="s">
+        <v>64</v>
+      </c>
+      <c r="J56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57" t="s">
+        <v>43</v>
+      </c>
+      <c r="G57" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>119</v>
+      </c>
+      <c r="I57" t="s">
+        <v>64</v>
+      </c>
+      <c r="J57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" t="s">
+        <v>101</v>
+      </c>
+      <c r="F58" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>120</v>
+      </c>
+      <c r="I58" t="s">
+        <v>64</v>
+      </c>
+      <c r="J58" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
